--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_2_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_2_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14087.52353682104</v>
+        <v>845251.4122092625</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14087.52353682104</v>
+        <v>845251.4122092625</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034965453.158035</v>
+        <v>41191170.65693919</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9234.108553927868</v>
+        <v>884055.0159131065</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18271.88189684902</v>
+        <v>1734134.518137607</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27309.65523977016</v>
+        <v>2584214.02036211</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37290.01629071202</v>
+        <v>3383219.579736238</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47270.37734165385</v>
+        <v>4182225.139110367</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56407.9780894518</v>
+        <v>5032304.641334867</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65545.57883724975</v>
+        <v>5882384.143559365</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74683.17958504768</v>
+        <v>6732463.645783863</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84663.54063598957</v>
+        <v>7531469.205157987</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93865.478224308</v>
+        <v>8369779.473394982</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103003.0789721059</v>
+        <v>9219858.975619484</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112140.6797199039</v>
+        <v>10069938.47784399</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121278.2804677018</v>
+        <v>10920017.9800685</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130483.8005968338</v>
+        <v>11757944.6063855</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140464.1616477757</v>
+        <v>12556950.16575964</v>
       </c>
     </row>
   </sheetData>
